--- a/data/xlsx/Lesson_01.xlsx
+++ b/data/xlsx/Lesson_01.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d150f0032c567a90/Projects/Python4U_if_UR/VideoUtility/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d150f0032c567a90/Projects/Python4U_if_UR/VideoUtility/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="11_AD4D220CE6761B7AC72154983490F47E683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F44863D7-71BD-4C92-9164-016A0ECB505E}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_AD4D220CE6761B7AC72154983490F47E683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECDD3517-6EDA-4C9D-8517-49700F6FF0E0}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="4260" windowWidth="27045" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
+    <sheet name="Аркуш1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>end_time</t>
   </si>
@@ -65,9 +66,6 @@
     <t>Як_прочитати_ексель_файл</t>
   </si>
   <si>
-    <t>0:01:00.1</t>
-  </si>
-  <si>
     <t>0:02:00.1</t>
   </si>
   <si>
@@ -84,6 +82,15 @@
   </si>
   <si>
     <t>0:09:00.1</t>
+  </si>
+  <si>
+    <t>0:05:03.1</t>
+  </si>
+  <si>
+    <t>Незрозумілий вступ</t>
+  </si>
+  <si>
+    <t>0:05:05.1</t>
   </si>
 </sst>
 </file>
@@ -415,7 +422,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +442,62 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722A3D5C-CF71-4F9D-B2B1-185BB7B4E9A9}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -444,7 +506,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -452,7 +514,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -460,7 +522,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -468,7 +530,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -476,7 +538,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -484,7 +546,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
